--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650350.0965891537</v>
+        <v>647061.8093344111</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17665746.29560157</v>
+        <v>17665746.2956016</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5639757.321660429</v>
+        <v>5639757.321660431</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>81.13435889727457</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>50.46697834767995</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>224.2386698395766</v>
       </c>
       <c r="V6" t="n">
-        <v>33.71010659323005</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>123.7922091700869</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862444</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.2386572690352</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>276.1565137023562</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W11" t="n">
-        <v>276.1565137023562</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023562</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>69.31585159621655</v>
       </c>
       <c r="S12" t="n">
-        <v>155.5032166200878</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.25736106477248</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>38.19053515138966</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>276.1565137023562</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>276.1565137023562</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023562</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176457</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.42681674263693</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>51.85782719829371</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>64.24901998153001</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.30468686766856</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.8942564344983</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.93225064571187</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>243.2386572690346</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>276.1565137023555</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>69.80716418639048</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="19">
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>26.51572092966551</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,61 +2093,61 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="Y20" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>205.8118405263978</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>108.5352083273466</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.23153138236689</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="22">
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S23" t="n">
-        <v>102.2133755837553</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>35.03557958070836</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.884372849250095</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>276.1565137023555</v>
+        <v>45.58123541261003</v>
       </c>
       <c r="G26" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>155.503216620085</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>56.4039219734154</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.57990476584696</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.677395284098507</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V29" t="n">
-        <v>276.1565137023555</v>
+        <v>62.24894065618111</v>
       </c>
       <c r="W29" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>37.42681674263682</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>18.11186662957332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>3.770020395989652</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2934,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>173.3217671684651</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>155.503216620085</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>123.6089707636821</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,22 +3266,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>20.75911149906596</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="E35" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G35" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H35" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>155.503216620085</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3512,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>276.1565137023547</v>
+        <v>20.75911149906596</v>
       </c>
       <c r="G38" t="n">
-        <v>243.238657269034</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>276.1565137023547</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>276.1565137023547</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>44.56666190014876</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="40">
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>29.71014592494667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>26.51572092966557</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I41" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.01265906493305</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="W41" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>110.7586968952469</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2681884137393</v>
+        <v>16.54234080278168</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>94.25736106477147</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F44" t="n">
-        <v>276.1565137023555</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="G44" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2133755837553</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>78.92493633756951</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>111.5079271034444</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>69.72986729279455</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.23693751337954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>545.7378793822027</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>386.5004243767472</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>239.9658664036321</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>101.2350409862476</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4410,13 +4410,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4525,13 +4525,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325.807288741569</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="V6" t="n">
-        <v>701.7829245265909</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W6" t="n">
-        <v>701.7829245265909</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X6" t="n">
-        <v>701.7829245265909</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y6" t="n">
-        <v>494.022625761637</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4708,7 +4708,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>274.799909001396</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>274.799909001396</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4817,37 +4817,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185848</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.5167634983088</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.5167634983088</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.5167634983088</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454959</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950732</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950732</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.0191193839555</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973064</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="S9" t="n">
-        <v>839.0145199852959</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="T9" t="n">
-        <v>839.0145199852959</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="U9" t="n">
-        <v>839.0145199852959</v>
+        <v>735.8335372470249</v>
       </c>
       <c r="V9" t="n">
-        <v>603.8624117535533</v>
+        <v>500.6814290152822</v>
       </c>
       <c r="W9" t="n">
-        <v>603.8624117535533</v>
+        <v>257.2326523711822</v>
       </c>
       <c r="X9" t="n">
-        <v>396.0109115480204</v>
+        <v>49.38115216564938</v>
       </c>
       <c r="Y9" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.0925210961885</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0925210961885</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D11" t="n">
-        <v>22.0925210961885</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E11" t="n">
-        <v>22.0925210961885</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>22.0925210961885</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438687</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412877</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173969</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823561</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901089</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491934</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809425</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809425</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809425</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809425</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U11" t="n">
-        <v>858.930441406359</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V11" t="n">
-        <v>579.9844679696355</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W11" t="n">
-        <v>301.038494532912</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X11" t="n">
-        <v>22.0925210961885</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.0925210961885</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.0925210961885</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C12" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.0925210961885</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364514</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L12" t="n">
-        <v>159.4923828364514</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M12" t="n">
-        <v>432.8873314017841</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112798</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O12" t="n">
-        <v>828.827883994564</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.712003991853</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809425</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809425</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="S12" t="n">
-        <v>947.552098627518</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="T12" t="n">
-        <v>947.552098627518</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="U12" t="n">
-        <v>719.3334862616657</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="V12" t="n">
-        <v>484.1813780299229</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="W12" t="n">
-        <v>229.9440213017213</v>
+        <v>780.3726863678703</v>
       </c>
       <c r="X12" t="n">
-        <v>22.0925210961885</v>
+        <v>572.5211861623375</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.0925210961885</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>58.7018972649274</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160691</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168857</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754631</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031368</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.3019767171708</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0925210961885</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>22.0925210961885</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>22.0925210961885</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>22.0925210961885</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
-        <v>22.0925210961885</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1104.626054809425</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C14" t="n">
-        <v>1104.626054809425</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D14" t="n">
-        <v>1104.626054809425</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E14" t="n">
-        <v>1066.049756676708</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F14" t="n">
-        <v>787.1037832399846</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G14" t="n">
-        <v>508.1578098032612</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H14" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I14" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618872</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438689</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412878</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173971</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823561</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901086</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P14" t="n">
-        <v>1099.465256491934</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809425</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809425</v>
+        <v>1066.821189412819</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809425</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809425</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809425</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809425</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809425</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809425</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="Y14" t="n">
-        <v>1104.626054809425</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>520.7989188188701</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="C15" t="n">
-        <v>346.3458895377431</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="D15" t="n">
-        <v>293.964245903103</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="E15" t="n">
         <v>134.7267908976475</v>
@@ -5349,58 +5349,58 @@
         <v>134.7267908976475</v>
       </c>
       <c r="H15" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I15" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J15" t="n">
-        <v>22.0925210961885</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4923828364514</v>
+        <v>45.1838775027733</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6478494291527</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M15" t="n">
-        <v>641.245121228852</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N15" t="n">
-        <v>641.245121228852</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O15" t="n">
-        <v>907.7419348121362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P15" t="n">
-        <v>1104.626054809425</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809425</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809425</v>
+        <v>1039.728054828078</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809425</v>
+        <v>1039.728054828078</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809425</v>
+        <v>1039.728054828078</v>
       </c>
       <c r="U15" t="n">
-        <v>1104.626054809425</v>
+        <v>1039.728054828078</v>
       </c>
       <c r="V15" t="n">
-        <v>1104.626054809425</v>
+        <v>804.5759465963358</v>
       </c>
       <c r="W15" t="n">
-        <v>1104.626054809425</v>
+        <v>550.3385898681342</v>
       </c>
       <c r="X15" t="n">
-        <v>896.7745546038921</v>
+        <v>342.4870896626014</v>
       </c>
       <c r="Y15" t="n">
-        <v>689.0142558389382</v>
+        <v>134.7267908976475</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>198.9927170031367</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C16" t="n">
-        <v>198.9927170031367</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D16" t="n">
-        <v>198.9927170031367</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E16" t="n">
-        <v>198.9927170031367</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F16" t="n">
-        <v>198.9927170031367</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G16" t="n">
-        <v>198.9927170031367</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H16" t="n">
-        <v>198.9927170031367</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I16" t="n">
-        <v>126.9677807731685</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J16" t="n">
-        <v>37.17560255650352</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K16" t="n">
-        <v>22.0925210961885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492739</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160691</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N16" t="n">
-        <v>160.9488293168857</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>194.125244575463</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.9927170031367</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="C17" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D17" t="n">
-        <v>858.9304414063566</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E17" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F17" t="n">
         <v>301.0384945329112</v>
@@ -5525,10 +5525,10 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5537,28 +5537,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>562.5268050686418</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C18" t="n">
-        <v>388.0737757875148</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D18" t="n">
-        <v>239.1393661262636</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E18" t="n">
-        <v>239.1393661262636</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F18" t="n">
-        <v>92.60480815314853</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G18" t="n">
-        <v>92.60480815314853</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H18" t="n">
         <v>22.09252109618844</v>
@@ -5598,10 +5598,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="L18" t="n">
-        <v>268.2479876888894</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M18" t="n">
-        <v>541.6429362542212</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N18" t="n">
         <v>641.2451212288496</v>
@@ -5619,25 +5619,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T18" t="n">
-        <v>730.7421420887098</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U18" t="n">
-        <v>730.7421420887098</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V18" t="n">
-        <v>730.7421420887098</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W18" t="n">
-        <v>730.7421420887098</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X18" t="n">
-        <v>730.7421420887098</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y18" t="n">
-        <v>730.7421420887098</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>198.9927170031358</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C19" t="n">
-        <v>198.9927170031358</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D19" t="n">
-        <v>48.87607759080007</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E19" t="n">
-        <v>48.87607759080007</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G19" t="n">
         <v>22.09252109618844</v>
@@ -5677,46 +5677,46 @@
         <v>22.09252109618844</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N19" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y19" t="n">
-        <v>198.9927170031358</v>
+        <v>191.7165880308942</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C20" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D20" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E20" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F20" t="n">
-        <v>508.1578098032605</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G20" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H20" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I20" t="n">
         <v>22.09252109618844</v>
@@ -5777,25 +5777,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V20" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W20" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X20" t="n">
-        <v>787.1037832399832</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y20" t="n">
-        <v>787.1037832399832</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2479876888895</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M21" t="n">
-        <v>541.6429362542214</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2451212288496</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O21" t="n">
-        <v>907.7419348121334</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P21" t="n">
         <v>1104.626054809422</v>
@@ -5853,25 +5853,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R21" t="n">
-        <v>1073.079053413092</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>901.0750406642703</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T21" t="n">
-        <v>901.0750406642703</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U21" t="n">
-        <v>672.856428298418</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V21" t="n">
-        <v>437.7043200666752</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W21" t="n">
-        <v>437.7043200666752</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X21" t="n">
-        <v>229.8528198611424</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y21" t="n">
         <v>22.09252109618844</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L22" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M22" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N22" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U22" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V22" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y22" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>301.0384945329112</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C23" t="n">
         <v>301.0384945329112</v>
@@ -5972,10 +5972,10 @@
         <v>301.0384945329112</v>
       </c>
       <c r="E23" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F23" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G23" t="n">
         <v>22.09252109618844</v>
@@ -5987,22 +5987,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K23" t="n">
         <v>142.8373253438684</v>
       </c>
       <c r="L23" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M23" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N23" t="n">
         <v>817.0829279823544</v>
       </c>
       <c r="O23" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P23" t="n">
         <v>1099.465256491931</v>
@@ -6011,28 +6011,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R23" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S23" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T23" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U23" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V23" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W23" t="n">
-        <v>579.9844679696339</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X23" t="n">
-        <v>579.9844679696339</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y23" t="n">
-        <v>301.0384945329112</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>170.1162652215953</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1162652215953</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D24" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E24" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F24" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H24" t="n">
         <v>22.09252109618844</v>
@@ -6066,52 +6066,52 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J24" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K24" t="n">
-        <v>28.39914141318535</v>
+        <v>45.1838775027733</v>
       </c>
       <c r="L24" t="n">
-        <v>274.5546080058863</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M24" t="n">
-        <v>547.9495565712182</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N24" t="n">
-        <v>821.3445051365501</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O24" t="n">
-        <v>1087.841318719834</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P24" t="n">
-        <v>1087.841318719834</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q24" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R24" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S24" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T24" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U24" t="n">
-        <v>1008.180757940352</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V24" t="n">
-        <v>1008.180757940352</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W24" t="n">
-        <v>753.9434012121501</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X24" t="n">
-        <v>546.0919010066173</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y24" t="n">
-        <v>338.3316022416633</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C25" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D25" t="n">
         <v>22.09252109618844</v>
@@ -6190,7 +6190,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>579.9844679696339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="C26" t="n">
-        <v>579.9844679696339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="D26" t="n">
-        <v>579.9844679696339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="E26" t="n">
-        <v>579.9844679696339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="F26" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G26" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H26" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I26" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J26" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K26" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L26" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M26" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N26" t="n">
         <v>817.0829279823542</v>
@@ -6254,22 +6254,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T26" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U26" t="n">
-        <v>1104.626054809422</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="V26" t="n">
-        <v>1104.626054809422</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="W26" t="n">
-        <v>1104.626054809422</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="X26" t="n">
-        <v>858.9304414063566</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="Y26" t="n">
-        <v>579.9844679696339</v>
+        <v>347.0801464648404</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>179.1664772780925</v>
+        <v>661.6224463721462</v>
       </c>
       <c r="C27" t="n">
-        <v>22.09252109618844</v>
+        <v>487.1694170910192</v>
       </c>
       <c r="D27" t="n">
-        <v>22.09252109618844</v>
+        <v>338.235007429768</v>
       </c>
       <c r="E27" t="n">
-        <v>22.09252109618844</v>
+        <v>338.235007429768</v>
       </c>
       <c r="F27" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7004494566529</v>
       </c>
       <c r="G27" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7004494566529</v>
       </c>
       <c r="H27" t="n">
-        <v>22.09252109618844</v>
+        <v>79.06617965519389</v>
       </c>
       <c r="I27" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J27" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K27" t="n">
-        <v>45.1838775027733</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L27" t="n">
-        <v>291.3393440954743</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M27" t="n">
-        <v>564.7342926608062</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="N27" t="n">
-        <v>838.1292412261381</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O27" t="n">
-        <v>1104.626054809422</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P27" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q27" t="n">
         <v>1104.626054809422</v>
@@ -6336,19 +6336,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U27" t="n">
-        <v>876.4074424435696</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V27" t="n">
-        <v>641.2553342118269</v>
+        <v>869.473946577679</v>
       </c>
       <c r="W27" t="n">
-        <v>387.0179774836253</v>
+        <v>869.473946577679</v>
       </c>
       <c r="X27" t="n">
-        <v>179.1664772780925</v>
+        <v>661.6224463721462</v>
       </c>
       <c r="Y27" t="n">
-        <v>179.1664772780925</v>
+        <v>661.6224463721462</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="C28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="D28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="E28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="F28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="G28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="H28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="I28" t="n">
-        <v>43.89040469805406</v>
+        <v>22.776758756894</v>
       </c>
       <c r="J28" t="n">
-        <v>22.09252109618844</v>
+        <v>22.776758756894</v>
       </c>
       <c r="K28" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L28" t="n">
         <v>58.70189726492715</v>
@@ -6406,28 +6406,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="T28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="U28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="V28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="W28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="X28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="Y28" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C29" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D29" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E29" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F29" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G29" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H29" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I29" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J29" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K29" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L29" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M29" t="n">
         <v>586.3582880173956</v>
@@ -6494,19 +6494,19 @@
         <v>896.7353068029595</v>
       </c>
       <c r="U29" t="n">
-        <v>896.7353068029595</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="V29" t="n">
-        <v>617.7893333662367</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W29" t="n">
-        <v>338.843359929514</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X29" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="Y29" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>181.329976101644</v>
+        <v>199.6247908789907</v>
       </c>
       <c r="C30" t="n">
-        <v>181.329976101644</v>
+        <v>199.6247908789907</v>
       </c>
       <c r="D30" t="n">
-        <v>181.329976101644</v>
+        <v>199.6247908789907</v>
       </c>
       <c r="E30" t="n">
-        <v>22.09252109618844</v>
+        <v>40.38733587353522</v>
       </c>
       <c r="F30" t="n">
-        <v>22.09252109618844</v>
+        <v>40.38733587353522</v>
       </c>
       <c r="G30" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H30" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I30" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J30" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K30" t="n">
-        <v>22.09252109618844</v>
+        <v>45.18387750277313</v>
       </c>
       <c r="L30" t="n">
-        <v>268.2479876888895</v>
+        <v>291.3393440954741</v>
       </c>
       <c r="M30" t="n">
-        <v>541.6429362542214</v>
+        <v>564.734292660806</v>
       </c>
       <c r="N30" t="n">
-        <v>815.0378848195533</v>
+        <v>838.1292412261379</v>
       </c>
       <c r="O30" t="n">
-        <v>1081.534698402837</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P30" t="n">
         <v>1104.626054809422</v>
@@ -6567,25 +6567,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S30" t="n">
-        <v>1100.817953399331</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T30" t="n">
-        <v>898.9380534274405</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U30" t="n">
-        <v>670.7194410615882</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V30" t="n">
-        <v>435.5673328298456</v>
+        <v>869.473946577679</v>
       </c>
       <c r="W30" t="n">
-        <v>181.329976101644</v>
+        <v>615.2365898494775</v>
       </c>
       <c r="X30" t="n">
-        <v>181.329976101644</v>
+        <v>407.3850896439446</v>
       </c>
       <c r="Y30" t="n">
-        <v>181.329976101644</v>
+        <v>199.6247908789907</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L31" t="n">
         <v>58.70189726492715</v>
@@ -6649,22 +6649,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T31" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U31" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V31" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W31" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X31" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>825.6800813726992</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="C32" t="n">
-        <v>546.7341079359765</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="D32" t="n">
-        <v>546.7341079359765</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="E32" t="n">
-        <v>546.7341079359765</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="F32" t="n">
-        <v>546.7341079359765</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0384945329112</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H32" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I32" t="n">
         <v>22.09252109618844</v>
@@ -6704,7 +6704,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L32" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M32" t="n">
         <v>586.3582880173956</v>
@@ -6713,7 +6713,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O32" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901065</v>
       </c>
       <c r="P32" t="n">
         <v>1099.465256491931</v>
@@ -6722,28 +6722,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R32" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S32" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="T32" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="U32" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="V32" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="W32" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="X32" t="n">
-        <v>825.6800813726992</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="Y32" t="n">
-        <v>825.6800813726992</v>
+        <v>229.2118363665377</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>179.1664772780925</v>
+        <v>321.403096603257</v>
       </c>
       <c r="C33" t="n">
-        <v>22.09252109618844</v>
+        <v>146.95006732213</v>
       </c>
       <c r="D33" t="n">
-        <v>22.09252109618844</v>
+        <v>146.95006732213</v>
       </c>
       <c r="E33" t="n">
         <v>22.09252109618844</v>
@@ -6777,22 +6777,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J33" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K33" t="n">
-        <v>159.4923828364511</v>
+        <v>45.1838775027733</v>
       </c>
       <c r="L33" t="n">
-        <v>405.6478494291521</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M33" t="n">
-        <v>679.0427979944841</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N33" t="n">
-        <v>907.7419348121334</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O33" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P33" t="n">
         <v>1104.626054809422</v>
@@ -6804,25 +6804,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S33" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T33" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U33" t="n">
-        <v>876.4074424435696</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V33" t="n">
-        <v>641.2553342118269</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="W33" t="n">
-        <v>387.0179774836253</v>
+        <v>697.4699338288578</v>
       </c>
       <c r="X33" t="n">
-        <v>179.1664772780925</v>
+        <v>489.618433623325</v>
       </c>
       <c r="Y33" t="n">
-        <v>179.1664772780925</v>
+        <v>489.618433623325</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L34" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M34" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N34" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O34" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P34" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q34" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R34" t="n">
-        <v>1104.626054809422</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S34" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T34" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C35" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="D35" t="n">
         <v>858.9304414063566</v>
-      </c>
-      <c r="D35" t="n">
-        <v>579.9844679696339</v>
       </c>
       <c r="E35" t="n">
         <v>579.9844679696339</v>
       </c>
       <c r="F35" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G35" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H35" t="n">
         <v>22.09252109618844</v>
@@ -6965,22 +6965,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="36">
@@ -7023,13 +7023,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M36" t="n">
-        <v>405.6478494291521</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N36" t="n">
-        <v>641.2451212288496</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O36" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P36" t="n">
         <v>1104.626054809422</v>
@@ -7044,19 +7044,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T36" t="n">
-        <v>1104.626054809422</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="U36" t="n">
-        <v>876.4074424435696</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V36" t="n">
-        <v>641.2553342118269</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W36" t="n">
-        <v>387.0179774836253</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X36" t="n">
-        <v>179.1664772780925</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y36" t="n">
         <v>22.09252109618844</v>
@@ -7120,10 +7120,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S37" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T37" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U37" t="n">
         <v>22.09252109618844</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>546.7341079359751</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="C38" t="n">
-        <v>546.7341079359751</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="D38" t="n">
-        <v>546.7341079359751</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="E38" t="n">
-        <v>546.7341079359751</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="F38" t="n">
-        <v>267.7881344992531</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="G38" t="n">
-        <v>22.09252109618838</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H38" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I38" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J38" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K38" t="n">
-        <v>142.8373253438655</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L38" t="n">
-        <v>344.908559541284</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M38" t="n">
-        <v>586.3582880173927</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N38" t="n">
-        <v>817.0829279823514</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O38" t="n">
-        <v>989.7620250901035</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P38" t="n">
-        <v>1099.465256491928</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q38" t="n">
-        <v>1104.626054809419</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R38" t="n">
-        <v>1104.626054809419</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S38" t="n">
-        <v>1104.626054809419</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T38" t="n">
-        <v>1104.626054809419</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U38" t="n">
-        <v>1104.626054809419</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V38" t="n">
-        <v>1104.626054809419</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="W38" t="n">
-        <v>1104.626054809419</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="X38" t="n">
-        <v>825.680081372697</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.7341079359751</v>
+        <v>600.9532674636399</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>406.0782328537842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C39" t="n">
-        <v>406.0782328537842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0782328537842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E39" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F39" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G39" t="n">
-        <v>222.4066668801599</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H39" t="n">
-        <v>109.7723970787009</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I39" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J39" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K39" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L39" t="n">
-        <v>268.2479876888894</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M39" t="n">
-        <v>541.6429362542206</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N39" t="n">
-        <v>641.2451212288466</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O39" t="n">
-        <v>907.7419348121305</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P39" t="n">
-        <v>1104.626054809419</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q39" t="n">
-        <v>1104.626054809419</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R39" t="n">
-        <v>1008.180757940349</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S39" t="n">
-        <v>836.1767451915273</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T39" t="n">
-        <v>634.2968452196366</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U39" t="n">
-        <v>406.0782328537842</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V39" t="n">
-        <v>406.0782328537842</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W39" t="n">
-        <v>406.0782328537842</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X39" t="n">
-        <v>406.0782328537842</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y39" t="n">
-        <v>406.0782328537842</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D40" t="n">
-        <v>168.9824685940987</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="E40" t="n">
-        <v>168.9824685940987</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="F40" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G40" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H40" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I40" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J40" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K40" t="n">
-        <v>22.09252109618838</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L40" t="n">
-        <v>58.7018972649271</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N40" t="n">
-        <v>160.948829316885</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O40" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.2118363665377</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C41" t="n">
-        <v>229.2118363665377</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D41" t="n">
-        <v>229.2118363665377</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E41" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F41" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G41" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H41" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I41" t="n">
         <v>22.09252109618844</v>
@@ -7415,7 +7415,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L41" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M41" t="n">
         <v>586.3582880173956</v>
@@ -7436,25 +7436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S41" t="n">
-        <v>1040.976904238782</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T41" t="n">
-        <v>1040.976904238782</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U41" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V41" t="n">
-        <v>787.1037832399832</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W41" t="n">
-        <v>508.1578098032605</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X41" t="n">
-        <v>508.1578098032605</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2118363665377</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>839.9654209202836</v>
+        <v>667.9614081714622</v>
       </c>
       <c r="C42" t="n">
-        <v>728.087949308923</v>
+        <v>493.5083788903352</v>
       </c>
       <c r="D42" t="n">
-        <v>579.1535396476718</v>
+        <v>344.5739692290839</v>
       </c>
       <c r="E42" t="n">
-        <v>419.9160846422163</v>
+        <v>185.3365142236284</v>
       </c>
       <c r="F42" t="n">
-        <v>273.3815266691013</v>
+        <v>38.80195625051337</v>
       </c>
       <c r="G42" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H42" t="n">
         <v>22.09252109618844</v>
@@ -7488,25 +7488,25 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J42" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K42" t="n">
-        <v>28.39914141318535</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39914141318535</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M42" t="n">
-        <v>288.9361218459458</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N42" t="n">
-        <v>562.3310704112777</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O42" t="n">
-        <v>828.8278839945615</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P42" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q42" t="n">
         <v>1104.626054809422</v>
@@ -7515,25 +7515,25 @@
         <v>1008.180757940352</v>
       </c>
       <c r="S42" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T42" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U42" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="V42" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="X42" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="Y42" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
     </row>
     <row r="43">
@@ -7588,25 +7588,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q43" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R43" t="n">
-        <v>22.09252109618844</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S43" t="n">
-        <v>22.09252109618844</v>
+        <v>22.776758756894</v>
       </c>
       <c r="T43" t="n">
-        <v>22.09252109618844</v>
+        <v>22.776758756894</v>
       </c>
       <c r="U43" t="n">
-        <v>22.09252109618844</v>
+        <v>22.776758756894</v>
       </c>
       <c r="V43" t="n">
-        <v>22.09252109618844</v>
+        <v>22.776758756894</v>
       </c>
       <c r="W43" t="n">
-        <v>22.09252109618844</v>
+        <v>22.776758756894</v>
       </c>
       <c r="X43" t="n">
         <v>22.09252109618844</v>
@@ -7625,22 +7625,22 @@
         <v>683.2303018926191</v>
       </c>
       <c r="C44" t="n">
-        <v>683.2303018926191</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="D44" t="n">
-        <v>683.2303018926191</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="E44" t="n">
-        <v>683.2303018926191</v>
+        <v>125.3383550191736</v>
       </c>
       <c r="F44" t="n">
-        <v>404.2843284558963</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G44" t="n">
-        <v>125.3383550191736</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H44" t="n">
-        <v>125.3383550191736</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I44" t="n">
         <v>22.09252109618844</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>615.2365898494777</v>
+        <v>368.941224853275</v>
       </c>
       <c r="C45" t="n">
-        <v>440.7835605683507</v>
+        <v>368.941224853275</v>
       </c>
       <c r="D45" t="n">
-        <v>361.0614026516138</v>
+        <v>368.941224853275</v>
       </c>
       <c r="E45" t="n">
-        <v>361.0614026516138</v>
+        <v>368.941224853275</v>
       </c>
       <c r="F45" t="n">
-        <v>361.0614026516138</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G45" t="n">
         <v>222.40666688016</v>
@@ -7725,19 +7725,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J45" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K45" t="n">
-        <v>22.09252109618844</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L45" t="n">
-        <v>268.2479876888895</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M45" t="n">
-        <v>541.6429362542214</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N45" t="n">
-        <v>815.0378848195533</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O45" t="n">
         <v>828.8278839945615</v>
@@ -7755,22 +7755,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T45" t="n">
-        <v>1104.626054809422</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U45" t="n">
-        <v>1104.626054809422</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V45" t="n">
-        <v>869.4739465776793</v>
+        <v>439.3754342399362</v>
       </c>
       <c r="W45" t="n">
-        <v>615.2365898494777</v>
+        <v>439.3754342399362</v>
       </c>
       <c r="X45" t="n">
-        <v>615.2365898494777</v>
+        <v>368.941224853275</v>
       </c>
       <c r="Y45" t="n">
-        <v>615.2365898494777</v>
+        <v>368.941224853275</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I46" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J46" t="n">
         <v>22.09252109618844</v>
@@ -7849,7 +7849,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.945311051992</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878866</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562861</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324509</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>242.501211349742</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>331.1054357131094</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878866</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>142.6317767593718</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>361.0244890520131</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N15" t="n">
-        <v>111.7499598249989</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.366125293857</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9252,7 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N18" t="n">
-        <v>212.358227476139</v>
+        <v>212.3582274761389</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>125.6774978810001</v>
@@ -9489,13 +9489,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N21" t="n">
-        <v>212.3582274761389</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>136.5441990361994</v>
       </c>
       <c r="Q21" t="n">
         <v>130.3661252938572</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>125.6774978810001</v>
+        <v>149.0021003118939</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N24" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>119.5899201578276</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.3204041722289</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>149.0021003118939</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>399.2039605324505</v>
+        <v>274.9430030574974</v>
       </c>
       <c r="N27" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
-        <v>125.6774978810001</v>
+        <v>149.0021003118938</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N30" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>142.9145225887215</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q30" t="n">
         <v>130.3661252938572</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>142.6317767593718</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N33" t="n">
-        <v>342.7591889337359</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O33" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q33" t="n">
         <v>130.3661252938572</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N36" t="n">
-        <v>349.7270020469159</v>
+        <v>272.4433368266699</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q36" t="n">
         <v>130.3661252938572</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571162</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>399.2039605324497</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N39" t="n">
-        <v>212.3582274761367</v>
+        <v>132.647065034147</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K42" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>386.2161139338934</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N42" t="n">
-        <v>387.9064735273546</v>
+        <v>272.4433368266699</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N45" t="n">
-        <v>387.9064735273547</v>
+        <v>263.6455160524019</v>
       </c>
       <c r="O45" t="n">
-        <v>138.6029107835218</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22623,25 +22623,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>31.1010853392219</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22674,16 +22674,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>201.1021466825878</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22765,7 +22765,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22787,16 +22787,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.5530912385654</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,16 +22863,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,16 +22911,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.702712241398189</v>
       </c>
       <c r="V6" t="n">
-        <v>199.0904805561952</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22948,10 +22948,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23078,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247596</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817688</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23148,25 +23148,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>47.89096193375093</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326066</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.6302781386799</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23239,7 +23239,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176457</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852791</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>103.5984649426425</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699686</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>8.09573251977605</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777868</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505679</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611281</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23355,7 +23355,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268735</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037947</v>
+        <v>26.16499230416302</v>
       </c>
       <c r="S12" t="n">
-        <v>14.78075600124532</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>153.5512891820309</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449829</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571186</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>80.19643759900688</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
         <v>222.9160118599466</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,25 +23495,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>343.7398349208721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>130.7195320393552</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>139.0054348249632</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194461</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852791</v>
+        <v>103.5984649426424</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699686</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,16 +23571,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>95.58723836634505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268735</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037947</v>
+        <v>31.23182391884956</v>
       </c>
       <c r="S15" t="n">
         <v>170.2839726213331</v>
@@ -23631,10 +23631,10 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059393</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,13 +23671,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>82.24660231436236</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310636</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
         <v>174.4537986637794</v>
@@ -23732,16 +23732,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>122.0342345019729</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E17" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>139.005434824964</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>120.2661701862133</v>
       </c>
       <c r="U17" t="n">
         <v>251.3343897888113</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
-        <v>41.70076291705396</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,25 +23859,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="19">
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>118.9053270932657</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>161.6656840978772</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3812856695756</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,13 +23981,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
         <v>222.4795457699687</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>261.1958923511225</v>
+        <v>126.4924434094344</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="21">
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.24931251801269</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
         <v>199.8611009721718</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="22">
@@ -24181,13 +24181,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>122.0342345019729</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H23" t="n">
         <v>338.0329468943008</v>
@@ -24251,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S23" t="n">
-        <v>103.5984649426425</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T23" t="n">
         <v>222.4795457699687</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y23" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>112.4094859839304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,7 +24300,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I24" t="n">
         <v>86.80307722268739</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S24" t="n">
         <v>170.2839726213331</v>
@@ -24339,10 +24339,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="25">
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>140.7311001689623</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421689</v>
       </c>
     </row>
     <row r="26">
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>130.719532039356</v>
+        <v>361.2948103291014</v>
       </c>
       <c r="G26" t="n">
         <v>139.005434824964</v>
@@ -24494,22 +24494,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T26" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>126.4924434094344</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24522,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>17.20528236823074</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H27" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>86.80307722268739</v>
+        <v>30.39915524927199</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24576,13 +24576,13 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24619,13 +24619,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J28" t="n">
-        <v>67.31435166865143</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K28" t="n">
-        <v>14.93225064571201</v>
+        <v>14.2548553616135</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R28" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>222.9160118599466</v>
@@ -24734,16 +24734,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>51.59574476777942</v>
+        <v>265.5033178139538</v>
       </c>
       <c r="W29" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>332.3042839358322</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2681884137393</v>
+        <v>119.156321784166</v>
       </c>
       <c r="H30" t="n">
         <v>111.5079271034444</v>
@@ -24807,13 +24807,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S30" t="n">
-        <v>166.5139522253435</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T31" t="n">
-        <v>52.54455953715788</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U31" t="n">
         <v>286.3155846423218</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421686</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>171.9232912582848</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H32" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I32" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8118405263978</v>
+        <v>32.49007335793274</v>
       </c>
       <c r="T32" t="n">
         <v>222.4795457699687</v>
@@ -24983,7 +24983,7 @@
         <v>93.57458697611355</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>17.20528236823074</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>34.03610969171883</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,19 +25044,19 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S33" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R34" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>222.9160118599466</v>
+        <v>222.2386165758481</v>
       </c>
       <c r="T34" t="n">
         <v>227.6757534850358</v>
@@ -25132,7 +25132,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V34" t="n">
-        <v>77.00644937595013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,22 +25154,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>344.5137802719416</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>78.52652791832747</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G35" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H35" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I35" t="n">
         <v>205.0481221176458</v>
@@ -25205,7 +25205,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U35" t="n">
         <v>251.3343897888113</v>
@@ -25284,10 +25284,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
-        <v>199.8611009721718</v>
+        <v>24.10415388719753</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.17947915721936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,13 +25360,13 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S37" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206872</v>
       </c>
       <c r="T37" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U37" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>130.7195320393567</v>
+        <v>386.1169342426455</v>
       </c>
       <c r="G38" t="n">
-        <v>171.9232912582854</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I38" t="n">
         <v>205.0481221176458</v>
@@ -25442,7 +25442,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3343897888113</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>93.57458697611429</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.0814249536988</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25476,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>113.0784185552522</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="40">
@@ -25552,13 +25552,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>118.9053270932657</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>118.9053270932657</v>
       </c>
       <c r="G40" t="n">
         <v>167.9278262653587</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25643,10 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H41" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S41" t="n">
-        <v>142.7991814614648</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T41" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110027</v>
       </c>
       <c r="W41" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>61.94980209306881</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25719,10 +25719,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>120.7258476109576</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I42" t="n">
         <v>86.80307722268739</v>
@@ -25755,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.8611009721718</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R43" t="n">
-        <v>80.19643759900795</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>222.9160118599466</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.0322601049386</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,25 +25865,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F44" t="n">
-        <v>130.719532039356</v>
+        <v>304.6626701579561</v>
       </c>
       <c r="G44" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H44" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I44" t="n">
-        <v>102.8347465338905</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25944,19 +25944,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>68.52012922706925</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25995,19 +25995,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>136.0431179106829</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26041,10 +26041,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I46" t="n">
-        <v>67.31435166865141</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K46" t="n">
         <v>14.93225064571201</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421689</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>495176.2609070232</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>495176.2609070232</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>495176.2609070223</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.466484521</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="G2" t="n">
-        <v>141745.4664845207</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="H2" t="n">
         <v>141745.4664845208</v>
@@ -26347,10 +26347,10 @@
         <v>141745.4664845208</v>
       </c>
       <c r="N2" t="n">
-        <v>141745.4664845206</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="O2" t="n">
-        <v>141745.4664845207</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="P2" t="n">
         <v>141745.4664845208</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923646</v>
+        <v>38628.88112923568</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213834</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="F4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="G4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="H4" t="n">
-        <v>16598.4432008745</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="I4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="J4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="K4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="L4" t="n">
-        <v>16598.4432008745</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="M4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="N4" t="n">
-        <v>16598.44320087448</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="O4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="P4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966587</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.7795167802</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.7795167802</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="G5" t="n">
         <v>17553.77951678015</v>
@@ -26491,10 +26491,10 @@
         <v>17553.77951678015</v>
       </c>
       <c r="J5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="K5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="L5" t="n">
         <v>17553.77951678015</v>
@@ -26503,7 +26503,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="N5" t="n">
-        <v>17553.7795167801</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="O5" t="n">
         <v>17553.77951678015</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12644.6216656788</v>
+        <v>-13036.85191122437</v>
       </c>
       <c r="C6" t="n">
-        <v>68124.80986586894</v>
+        <v>67732.57962032343</v>
       </c>
       <c r="D6" t="n">
-        <v>68124.80986586894</v>
+        <v>67732.57962032341</v>
       </c>
       <c r="E6" t="n">
-        <v>68964.36263762979</v>
+        <v>68570.9568988391</v>
       </c>
       <c r="F6" t="n">
-        <v>107593.2437668661</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="G6" t="n">
-        <v>107593.2437668668</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="H6" t="n">
-        <v>107593.2437668661</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="I6" t="n">
-        <v>107593.2437668661</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="J6" t="n">
-        <v>44533.30116775988</v>
+        <v>44139.89542896855</v>
       </c>
       <c r="K6" t="n">
-        <v>107593.2437668661</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="L6" t="n">
-        <v>107593.2437668661</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="M6" t="n">
-        <v>98835.6607716523</v>
+        <v>98442.25503286111</v>
       </c>
       <c r="N6" t="n">
-        <v>107593.2437668662</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="O6" t="n">
-        <v>107593.243766866</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="P6" t="n">
-        <v>107593.2437668661</v>
+        <v>107199.8380280748</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912605</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
-        <v>35.021260719126</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="H3" t="n">
         <v>35.02126071912534</v>
@@ -26793,13 +26793,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023562</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023562</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G4" t="n">
         <v>276.1565137023555</v>
@@ -26811,10 +26811,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="L4" t="n">
         <v>276.1565137023555</v>
@@ -26823,7 +26823,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N4" t="n">
-        <v>276.1565137023547</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O4" t="n">
         <v>276.1565137023555</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912605</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469717</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469717</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469717</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815582</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466329</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42776745276023</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461276</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884635</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470748</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677283</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840385</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081266</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411547</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796994</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587056</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847578</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941627105</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524656</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132773</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520337</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727731</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878780135</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335909</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358807</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192369</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833449</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689086</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650293</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164572</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504705</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497814</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008405</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006335</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623819</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522736</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174479</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170996</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894875</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402949021</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394248</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179869</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938569</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368588033</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390121</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025649</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457252</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094369</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155818</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466327</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760222</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461275</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884633</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470744</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677279</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840382</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081262</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411545</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796992</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870547</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847573</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941627096</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524654</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132762</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520327</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727727</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878780125</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335907</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358804</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192366</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833446</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689083</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>14.3844872565029</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164558</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263659</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504703</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497809</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008398</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006327</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623811</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227358</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174473</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170985</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894863</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402949007</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394234</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179854</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938558</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368588025</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390117</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025648</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457248</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094364</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,43 +32230,43 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760118</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N17" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q17" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R17" t="n">
-        <v>8.843836255870377</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,28 +32303,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779988</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L18" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M18" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O18" t="n">
         <v>17.92262575689049</v>
@@ -32333,19 +32333,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S18" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948817</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997366</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350305</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751707</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223326</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837971</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118713</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503286</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593425135</v>
+        <v>5.212927593424821</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315787</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023562</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>130.7512515247432</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891759</v>
+        <v>206.4318170255555</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821098</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199216</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721102</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>49.48341136478961</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062284</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421954</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815832057</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350305</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L14" t="n">
-        <v>204.1123577751706</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M14" t="n">
-        <v>243.8886146223326</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N14" t="n">
-        <v>233.0551918837971</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O14" t="n">
-        <v>174.4233304118713</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503286</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593425114</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315787</v>
+        <v>16.95427887837166</v>
       </c>
       <c r="L15" t="n">
-        <v>248.641885447173</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>237.9770422219185</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891759</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821098</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.979167847211</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M16" t="n">
-        <v>49.4834113647896</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062282</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421953</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815832046</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424821</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N18" t="n">
-        <v>100.6082676511398</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="O18" t="n">
         <v>269.1887005891756</v>
@@ -36051,13 +36051,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O19" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N21" t="n">
-        <v>100.6082676511396</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O21" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
-        <v>198.8728484821096</v>
+        <v>16.95427887837174</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>23.3246024308938</v>
       </c>
       <c r="L24" t="n">
         <v>248.6418854471727</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.95427887837174</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K27" t="n">
-        <v>23.3246024308938</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L27" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M27" t="n">
-        <v>276.1565137023555</v>
+        <v>151.8955562274024</v>
       </c>
       <c r="N27" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>23.32460243089363</v>
       </c>
       <c r="L30" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M30" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N30" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O30" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P30" t="n">
-        <v>23.3246024308939</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K33" t="n">
-        <v>138.7877391315785</v>
+        <v>16.95427887837166</v>
       </c>
       <c r="L33" t="n">
         <v>248.6418854471727</v>
@@ -37157,13 +37157,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N33" t="n">
-        <v>231.0092291087367</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N36" t="n">
-        <v>237.9770422219166</v>
+        <v>160.6933770016707</v>
       </c>
       <c r="O36" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P36" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>121.9644487350274</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L38" t="n">
         <v>204.1123577751702</v>
@@ -37628,10 +37628,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M39" t="n">
-        <v>276.1565137023547</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N39" t="n">
-        <v>100.6082676511375</v>
+        <v>20.89710520914779</v>
       </c>
       <c r="O39" t="n">
         <v>269.1887005891756</v>
@@ -37640,7 +37640,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424865</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M42" t="n">
-        <v>263.1686671037984</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N42" t="n">
-        <v>276.1565137023555</v>
+        <v>160.6933770016707</v>
       </c>
       <c r="O42" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L45" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M45" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>276.1565137023555</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="O45" t="n">
-        <v>13.92929209596791</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P45" t="n">
         <v>198.8728484821096</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680040.3809121598</v>
+        <v>611606.4674639702</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.32998551179172</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>179.5142899282343</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.809496073036132</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33.09674357537099</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,61 +1147,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>153.5305522837166</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.405126216638</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>156.2255336700163</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4731917137266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496854</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.2502515936889</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>93.4621016810332</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>23.35455705266811</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.14167849255895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>337.7381183786924</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>283.095464630056</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.08467608327355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>43.31175043371119</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>197.9240804051654</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2453,7 +2453,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.7456473197373</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>251.2004257102383</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>169.7751448242505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>87.12574707908767</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4.553842565068821</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>337.7381183786924</v>
+        <v>80.02557349504016</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="W31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>46.58646588932444</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>230.4899827373632</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>163.4435927426897</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>264.3862503229324</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>208.0914806539089</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3401,7 +3401,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>173.8683972746516</v>
+        <v>43.31785343913992</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>7.729093043535252</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.11411575496435</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>13.69284868328427</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>280.1033070984083</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>50.05665370612845</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.38122376111779</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>373.7512243215245</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>69.0708624534348</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4360,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.27102746555789</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C3" t="n">
-        <v>85.27102746555789</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>909.0960185696777</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>609.3122453772301</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>609.3122453772301</v>
       </c>
       <c r="V3" t="n">
-        <v>461.2466632505798</v>
+        <v>609.3122453772301</v>
       </c>
       <c r="W3" t="n">
-        <v>461.2466632505798</v>
+        <v>365.86346873313</v>
       </c>
       <c r="X3" t="n">
-        <v>461.2466632505798</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y3" t="n">
-        <v>253.4863644856259</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.9119902784999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>486.9119902784999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>337.9775806172486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4752,25 +4752,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
         <v>473.4149733950735</v>
@@ -4907,25 +4907,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>933.8659450146204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>933.8659450146204</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T9" t="n">
-        <v>933.8659450146204</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>705.6423267510095</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>470.4902185192667</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>227.0414418751666</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1099.346874905661</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C11" t="n">
-        <v>1099.346874905661</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D11" t="n">
-        <v>741.081176298911</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E11" t="n">
-        <v>355.2929237006668</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>355.2929237006668</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>2212.181128500977</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>1859.412473230863</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>1485.946714969783</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y11" t="n">
-        <v>1485.946714969783</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810045</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810045</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1899.21241430279</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="C14" t="n">
-        <v>1899.21241430279</v>
+        <v>1700.959030454822</v>
       </c>
       <c r="D14" t="n">
-        <v>1540.94671569604</v>
+        <v>1342.693331848072</v>
       </c>
       <c r="E14" t="n">
-        <v>1155.158463097795</v>
+        <v>956.9050792498276</v>
       </c>
       <c r="F14" t="n">
-        <v>744.1725583081877</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W14" t="n">
-        <v>2289.351746278602</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X14" t="n">
-        <v>2289.351746278602</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y14" t="n">
-        <v>1899.21241430279</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5378,7 +5378,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5445,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810047</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59950625323012</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59950625323012</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>903.5661947296837</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C17" t="n">
-        <v>534.603677789272</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D17" t="n">
-        <v>534.603677789272</v>
+        <v>977.29885802596</v>
       </c>
       <c r="E17" t="n">
-        <v>534.603677789272</v>
+        <v>977.29885802596</v>
       </c>
       <c r="F17" t="n">
-        <v>534.603677789272</v>
+        <v>566.3129532363525</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>148.3491451345394</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>148.3491451345394</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.455337753612</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y17" t="n">
-        <v>1167.455337753612</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.8626623130036</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="C19" t="n">
-        <v>498.8626623130036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
         <v>200.8329293182748</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.5111271432434</v>
+        <v>224.4233909876365</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1226.657559460833</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C20" t="n">
-        <v>857.6950425204218</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X20" t="n">
-        <v>2003.396731500767</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y20" t="n">
-        <v>1613.257399524955</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5831,43 +5831,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2342.015910972395</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044489</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2549.002432452407</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2549.002432452407</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>2549.002432452407</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>2549.002432452407</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2523.664375802635</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1363.553390680693</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="C23" t="n">
-        <v>1363.553390680693</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2047.384933294377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1716.322045950807</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>1363.553390680693</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X23" t="n">
-        <v>1363.553390680693</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y23" t="n">
-        <v>1363.553390680693</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="24">
@@ -6089,16 +6089,16 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.0636002298164</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C25" t="n">
-        <v>517.0636002298164</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D25" t="n">
-        <v>370.8558756644252</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W25" t="n">
-        <v>698.7120650600561</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X25" t="n">
-        <v>698.7120650600561</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y25" t="n">
-        <v>698.7120650600561</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.425425970681</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C26" t="n">
-        <v>951.4629090302697</v>
+        <v>1469.698544874888</v>
       </c>
       <c r="D26" t="n">
-        <v>593.1972104235191</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E26" t="n">
-        <v>207.4089578252748</v>
+        <v>725.6445936698931</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2470.630356271695</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2470.630356271695</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X26" t="n">
-        <v>2097.164598010615</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y26" t="n">
-        <v>1707.025266034803</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
@@ -6317,31 +6317,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>288.8387344486664</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>288.8387344486664</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>141.948786950756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>141.948786950756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W28" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X28" t="n">
-        <v>438.9553738610022</v>
+        <v>58.54282279518145</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>381.1377017843616</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>381.1377017843616</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545185</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X29" t="n">
-        <v>1112.426648284105</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="Y29" t="n">
-        <v>722.2873163082934</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U31" t="n">
-        <v>2407.975480672791</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V31" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>934.637173372437</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C32" t="n">
-        <v>565.6746564320254</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D32" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X32" t="n">
-        <v>1167.455337753612</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y32" t="n">
-        <v>934.637173372437</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6785,10 +6785,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,28 +6800,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>2540.369809567131</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>2250.95263953017</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1689.203741822952</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>1689.203741822952</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>1689.203741822952</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.415489224708</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>892.4295844351004</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>474.4657763332873</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V35" t="n">
-        <v>2465.942913862886</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W35" t="n">
-        <v>2465.942913862886</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X35" t="n">
-        <v>2465.942913862886</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y35" t="n">
-        <v>2075.803581887074</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="36">
@@ -7013,40 +7013,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>552.5043404946649</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U37" t="n">
-        <v>552.5043404946649</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V37" t="n">
-        <v>552.5043404946649</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W37" t="n">
-        <v>552.5043404946649</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X37" t="n">
-        <v>552.5043404946649</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y37" t="n">
-        <v>552.5043404946649</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1905.140074719376</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="C38" t="n">
-        <v>1536.177557778964</v>
+        <v>1276.488112000469</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.911859172214</v>
+        <v>1276.488112000469</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1236065739693</v>
+        <v>890.6998594022248</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>479.7139546126172</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>61.75014651080409</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2644.508570053612</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2644.508570053612</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2644.508570053612</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2644.508570053612</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.508570053612</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W38" t="n">
-        <v>2291.739914783498</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X38" t="n">
-        <v>2291.739914783498</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="Y38" t="n">
-        <v>2291.739914783498</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X40" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1208.982837814967</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1282.512107596175</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>896.7238549979309</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>485.7379502083233</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>67.77414210651017</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2359.18776811598</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W41" t="n">
-        <v>2359.18776811598</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X41" t="n">
-        <v>1985.7220098549</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y41" t="n">
-        <v>1595.582677879088</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="42">
@@ -7472,43 +7472,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.5052582912013</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C43" t="n">
-        <v>104.5052582912013</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D43" t="n">
-        <v>104.5052582912013</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>325.2978374347314</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2978374347314</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X43" t="n">
-        <v>325.2978374347314</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.5052582912013</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C44" t="n">
-        <v>1422.14692331494</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.14692331494</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7651,16 +7651,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2572.351853615953</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2572.351853615953</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.351853615953</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2572.351853615953</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2198.886095354873</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1808.746763379062</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7736,34 +7736,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7812,43 +7812,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
         <v>53.94298182036445</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.4980740263837</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22600,13 +22600,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>82.11508005284703</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>20.65043876658731</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22840,10 +22840,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>124.54833688003</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,13 +23035,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>70.26853576158743</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23165,10 +23165,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>229.203289379764</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>267.3790438041569</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>250.6505120716951</v>
       </c>
       <c r="G14" t="n">
-        <v>206.3109783070684</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23551,19 +23551,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>121.4835900697917</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>58.46921456382805</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>143.8922640459597</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.4429748595358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>76.04605164210255</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24022,19 +24022,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>86.63563604841306</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.4999772688213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>321.9611413372963</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>53.30008710312387</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>3.86982569847504</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>38.52630155726061</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24423,10 +24423,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>155.6756200314731</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>157.9771136458844</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>69.04514176270747</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>214.030810787026</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>44.99572328478814</v>
+        <v>302.7082681684404</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>168.53933734988</v>
       </c>
       <c r="W31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>308.0965757313585</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>155.7479559186904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25134,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>96.92615468724722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>55.14106060940509</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>59.53652244142478</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>161.6396200245602</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>51.16670818343269</v>
+        <v>181.7172520189444</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>316.1936797208219</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.364286819847372</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,7 +25447,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>310.2299240810729</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>47.64895137172664</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>96.37730894044071</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>46.03982426181345</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>40.03294569927044</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>147.377457904223</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131496</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.866113149</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
@@ -26331,19 +26331,19 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26352,10 +26352,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.088012606</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.088012606</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26481,7 +26481,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26493,16 +26493,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13036.85191122433</v>
+        <v>-25254.86253126479</v>
       </c>
       <c r="C6" t="n">
-        <v>67732.57962032341</v>
+        <v>55514.56900028294</v>
       </c>
       <c r="D6" t="n">
-        <v>67732.57962032343</v>
+        <v>55514.56900028291</v>
       </c>
       <c r="E6" t="n">
-        <v>-268984.4916634627</v>
+        <v>-275052.9054092818</v>
       </c>
       <c r="F6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="G6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="H6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337143</v>
       </c>
       <c r="I6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="J6" t="n">
-        <v>100801.7397804271</v>
+        <v>94733.3260346079</v>
       </c>
       <c r="K6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="L6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337143</v>
       </c>
       <c r="M6" t="n">
-        <v>55888.32170547529</v>
+        <v>49819.907959656</v>
       </c>
       <c r="N6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="O6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="P6" t="n">
-        <v>163861.6823795335</v>
+        <v>157793.2686337141</v>
       </c>
     </row>
   </sheetData>
@@ -26752,13 +26752,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26767,7 +26767,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26813,22 +26813,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.51629994036219</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>130.3926104730631</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,19 +38104,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611606.4674639702</v>
+        <v>672441.9423756701</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554237</v>
+        <v>337002.2430554241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10947499.68099521</v>
       </c>
     </row>
     <row r="9">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>179.5142899282343</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>113.3209940643362</v>
       </c>
     </row>
     <row r="7">
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1302,52 +1302,52 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.5305522837166</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>284.4672557676708</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.91544265059222</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>156.2255336700163</v>
+        <v>353.1535087370059</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>106.3857324072559</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>93.4621016810332</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>23.35455705266811</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>337.7381183786924</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7614464811185</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>43.31175043371119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>168.5786113415029</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>192.5627265154902</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>315.1740250276587</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>251.2004257102383</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U27" t="n">
         <v>225.8879277888686</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.1560086992563</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.553842565068821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.02557349504016</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>360.688538488851</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>83.59830597394803</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>46.58646588932444</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>187.0143420976213</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.4435927426897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>208.0914806539089</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>253.2392985316888</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>43.31785343913992</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.729093043535252</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>195.1775935777766</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>114.3028656524357</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>210.1119424475482</v>
       </c>
       <c r="H41" t="n">
-        <v>13.69284868328427</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>99.38122376111779</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.6652719985049</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>45.20599147588112</v>
       </c>
       <c r="G44" t="n">
-        <v>373.7512243215245</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.08390849687548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>609.3122453772301</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>609.3122453772301</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>609.3122453772301</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>365.86346873313</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4518,7 +4518,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
         <v>262.7299197543128</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="7">
@@ -4752,16 +4752,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X8" t="n">
-        <v>601.5428246748836</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y8" t="n">
-        <v>358.0940480307835</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,10 +4910,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
         <v>705.7335281915883</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>840.8693068625894</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="C11" t="n">
-        <v>471.9067899221776</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="D11" t="n">
-        <v>471.9067899221776</v>
+        <v>759.2474523137644</v>
       </c>
       <c r="E11" t="n">
         <v>471.9067899221776</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V11" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W11" t="n">
-        <v>1759.555763042629</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X11" t="n">
-        <v>1386.090004781549</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y11" t="n">
-        <v>995.9506728057374</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="12">
@@ -5108,13 +5108,13 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5126,10 +5126,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2069.921547395234</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C14" t="n">
-        <v>1700.959030454822</v>
+        <v>1214.415758416387</v>
       </c>
       <c r="D14" t="n">
-        <v>1342.693331848072</v>
+        <v>1214.415758416387</v>
       </c>
       <c r="E14" t="n">
-        <v>956.9050792498276</v>
+        <v>828.6275058181432</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.387305656314</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W14" t="n">
-        <v>2443.387305656314</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X14" t="n">
-        <v>2069.921547395234</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y14" t="n">
-        <v>2069.921547395234</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5360,40 +5360,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5463,19 +5463,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>632.5337622027571</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U16" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X16" t="n">
         <v>53.94298182036445</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1704.527073573122</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="C17" t="n">
-        <v>1335.56455663271</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="D17" t="n">
-        <v>977.29885802596</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="E17" t="n">
-        <v>977.29885802596</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>566.3129532363525</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>148.3491451345394</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>148.3491451345394</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5551,16 +5551,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2057.295728843236</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.527073573122</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X17" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y17" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5606,10 +5606,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5618,7 +5618,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>224.4233909876365</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X19" t="n">
-        <v>224.4233909876365</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.4233909876365</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>722.2873163082934</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C20" t="n">
-        <v>722.2873163082934</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D20" t="n">
-        <v>722.2873163082934</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>722.2873163082934</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>722.2873163082934</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5755,7 +5755,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224076</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>2116.355541533972</v>
       </c>
       <c r="W20" t="n">
-        <v>1485.892406545185</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="X20" t="n">
-        <v>1112.426648284105</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y20" t="n">
-        <v>722.2873163082934</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>149.5382038240415</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C22" t="n">
-        <v>149.5382038240415</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D22" t="n">
-        <v>149.5382038240415</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W22" t="n">
-        <v>149.5382038240415</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X22" t="n">
-        <v>149.5382038240415</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.5382038240415</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1670.695888779115</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.94664591678</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.867665420745</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.867665420745</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2273.105880058836</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>1942.042992715266</v>
       </c>
       <c r="W23" t="n">
-        <v>2057.295728843236</v>
+        <v>1589.274337445152</v>
       </c>
       <c r="X23" t="n">
-        <v>2057.295728843236</v>
+        <v>1589.274337445152</v>
       </c>
       <c r="Y23" t="n">
-        <v>2057.295728843236</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="24">
@@ -6068,31 +6068,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073964</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.027325963587</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C25" t="n">
-        <v>184.027325963587</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>184.027325963587</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005476</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W25" t="n">
-        <v>184.027325963587</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X25" t="n">
-        <v>184.027325963587</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.027325963587</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1838.661061815299</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C26" t="n">
-        <v>1469.698544874888</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D26" t="n">
-        <v>1111.432846268137</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E26" t="n">
-        <v>725.6445936698931</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X26" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y26" t="n">
-        <v>1838.661061815299</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6326,13 +6326,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
         <v>2289.884200196743</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931988</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>286.5323736931988</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>286.5323736931988</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5323736931988</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X28" t="n">
-        <v>58.54282279518145</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>418.2748388798099</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2092.422847177208</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>1739.654191907094</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X29" t="n">
-        <v>1739.654191907094</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y29" t="n">
-        <v>1349.514859931282</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>138.3857151273827</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>138.3857151273827</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1315.737983561872</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C32" t="n">
-        <v>1315.737983561872</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862886</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W32" t="n">
-        <v>2465.942913862886</v>
+        <v>1747.24355477073</v>
       </c>
       <c r="X32" t="n">
-        <v>2092.477155601806</v>
+        <v>1373.77779650965</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.337823625994</v>
+        <v>983.6384645338385</v>
       </c>
     </row>
     <row r="33">
@@ -6791,13 +6791,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348.7460229006679</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C34" t="n">
-        <v>348.7460229006679</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
         <v>348.7460229006679</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245969</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W34" t="n">
-        <v>513.8405610245969</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X34" t="n">
-        <v>513.8405610245969</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y34" t="n">
-        <v>348.7460229006679</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.94664591678</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
         <v>882.8926947117852</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V35" t="n">
-        <v>2189.908715988822</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W35" t="n">
-        <v>1837.140060718708</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X35" t="n">
-        <v>1626.94664591678</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y35" t="n">
-        <v>1626.94664591678</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036446</v>
@@ -7019,22 +7019,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>684.3735766921516</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X37" t="n">
-        <v>456.3840257941342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1645.450628940881</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C38" t="n">
-        <v>1276.488112000469</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D38" t="n">
-        <v>1276.488112000469</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E38" t="n">
-        <v>890.6998594022248</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>479.7139546126172</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>61.75014651080409</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W38" t="n">
-        <v>2035.589960916692</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X38" t="n">
-        <v>2035.589960916692</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.450628940881</v>
+        <v>1125.191652989356</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7259,19 +7259,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>211.6471865296039</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="V40" t="n">
-        <v>211.6471865296039</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036444</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036444</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1640.777806202926</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="C41" t="n">
-        <v>1640.777806202926</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="D41" t="n">
-        <v>1282.512107596175</v>
+        <v>1062.95142450877</v>
       </c>
       <c r="E41" t="n">
-        <v>896.7238549979309</v>
+        <v>677.1631719105258</v>
       </c>
       <c r="F41" t="n">
-        <v>485.7379502083233</v>
+        <v>266.1772671209182</v>
       </c>
       <c r="G41" t="n">
-        <v>67.77414210651017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.54646147304</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W41" t="n">
-        <v>1640.777806202926</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X41" t="n">
-        <v>1640.777806202926</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y41" t="n">
-        <v>1640.777806202926</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>473.4444960005474</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C43" t="n">
-        <v>473.4444960005474</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D43" t="n">
-        <v>323.3278565882116</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E43" t="n">
-        <v>323.3278565882116</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005474</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W43" t="n">
-        <v>473.4444960005474</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X43" t="n">
-        <v>473.4444960005474</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y43" t="n">
-        <v>473.4444960005474</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1485.892406545185</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C44" t="n">
-        <v>1116.929889604773</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D44" t="n">
-        <v>758.6641909980228</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E44" t="n">
-        <v>758.6641909980228</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F44" t="n">
-        <v>758.6641909980228</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>1485.892406545185</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y44" t="n">
-        <v>1485.892406545185</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="45">
@@ -7727,13 +7727,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V46" t="n">
-        <v>502.7251118619119</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W46" t="n">
-        <v>502.7251118619119</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9008,7 +9008,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22597,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,16 +22676,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>20.65043876658731</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22758,10 +22758,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22868,13 +22868,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>92.36170171296814</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>288.3233546697745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23150,13 +23150,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.203289379764</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>97.46311430459093</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>162.9165375313451</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>83.3620382482288</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23475,7 +23475,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>250.6505120716951</v>
+        <v>53.72253700470554</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23545,7 +23545,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23703,13 +23703,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>56.93405031343804</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>275.5446376650059</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>58.46921456382805</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>143.8922640459597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23940,7 +23940,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>76.04605164210255</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.990811989016436</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822156</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>321.9611413372963</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>5.837101467468671</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>38.52630155726061</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>93.71914772648751</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>50.09886674334888</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>155.6756200314731</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24651,7 +24651,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>134.9816346245717</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.030810787026</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.7082681684404</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>53.09563153194398</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,7 +24733,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24885,19 +24885,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>168.53933734988</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>308.0965757313585</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>162.2266266197917</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822156</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.14106060940509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>161.6396200245602</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>132.9986401243648</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17.49548950841384</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>181.7172520189444</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>316.1936797208219</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>191.060345078277</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>171.979008589542</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>203.6722275732468</v>
       </c>
       <c r="H41" t="n">
-        <v>310.2299240810729</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>46.03982426181345</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.6166022434728</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>361.6700542658303</v>
       </c>
       <c r="G44" t="n">
-        <v>40.03294569927044</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>99.22589376217543</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>28.98780970275092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131496</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="16">
@@ -26319,10 +26319,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
@@ -26331,7 +26331,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26343,7 +26343,7 @@
         <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26352,10 +26352,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26493,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25254.86253126479</v>
+        <v>-14258.65297322841</v>
       </c>
       <c r="C6" t="n">
-        <v>55514.56900028294</v>
+        <v>66510.77855831939</v>
       </c>
       <c r="D6" t="n">
-        <v>55514.56900028291</v>
+        <v>66510.77855831942</v>
       </c>
       <c r="E6" t="n">
-        <v>-275052.9054092818</v>
+        <v>-269591.3330380446</v>
       </c>
       <c r="F6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="G6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="H6" t="n">
-        <v>157793.2686337143</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="I6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="J6" t="n">
-        <v>94733.3260346079</v>
+        <v>100194.8984058452</v>
       </c>
       <c r="K6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="L6" t="n">
-        <v>157793.2686337143</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="M6" t="n">
-        <v>49819.907959656</v>
+        <v>55281.4803308933</v>
       </c>
       <c r="N6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="O6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="P6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049515</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26755,10 +26755,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="I3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26813,10 +26813,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35494,19 +35494,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
